--- a/private/study/英语单词表.xlsx
+++ b/private/study/英语单词表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18060" windowHeight="18280"/>
+    <workbookView windowWidth="18060" windowHeight="18280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="基础" sheetId="2" r:id="rId2"/>
-    <sheet name="免疫" sheetId="3" r:id="rId3"/>
-    <sheet name="统计" sheetId="4" r:id="rId4"/>
+    <sheet name="分子" sheetId="5" r:id="rId3"/>
+    <sheet name="免疫" sheetId="3" r:id="rId4"/>
+    <sheet name="统计" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>英语单词表</t>
   </si>
@@ -68,6 +69,27 @@
   </si>
   <si>
     <t>计算机科学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>汉语</t>
+  </si>
+  <si>
+    <t>MHC</t>
+  </si>
+  <si>
+    <t>IFN</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>肿瘤坏死因子</t>
+  </si>
+  <si>
+    <t>Tumor Necrosis Factor</t>
   </si>
 </sst>
 </file>
@@ -75,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -102,6 +124,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -111,14 +147,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,15 +184,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,15 +200,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,24 +228,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,13 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -225,24 +262,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -255,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +523,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,38 +571,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,19 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,130 +643,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,6 +777,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,9 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -1094,7 +1116,7 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1106,145 +1128,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1277,6 +1299,60 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="8.72727272727273" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1293,7 +1369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/private/study/英语单词表.xlsx
+++ b/private/study/英语单词表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18060" windowHeight="18280" activeTab="2"/>
+    <workbookView windowWidth="20325" windowHeight="9690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>英语单词表</t>
   </si>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>Tumor Necrosis Factor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英语</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汉语</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肿瘤坏死因子</t>
+    </r>
+  </si>
+  <si>
+    <t>B lymphocyte</t>
   </si>
 </sst>
 </file>
@@ -97,16 +133,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -114,6 +150,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -124,91 +166,124 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -216,55 +291,22 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,13 +319,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,163 +445,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,17 +565,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +589,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,11 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,162 +662,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,75 +819,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1120,11 +1162,11 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.27272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8181818181818" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="6.275" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8166666666667" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.725" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1286,9 +1328,9 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="16384" width="8.725" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1301,46 +1343,46 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="8.72727272727273" style="2"/>
+    <col min="1" max="16384" width="8.725" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1353,17 +1395,59 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="23.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.725" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1378,9 +1462,9 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="16384" width="8.725" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/private/study/英语单词表.xlsx
+++ b/private/study/英语单词表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>英语单词表</t>
   </si>
@@ -126,6 +126,435 @@
   </si>
   <si>
     <t>B lymphocyte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>淋巴细胞</t>
+    </r>
+  </si>
+  <si>
+    <t>B cell</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细胞</t>
+    </r>
+  </si>
+  <si>
+    <t>B cell epitope</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细胞表位</t>
+    </r>
+  </si>
+  <si>
+    <t>B cell receptor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细胞受体</t>
+    </r>
+  </si>
+  <si>
+    <t>BCR</t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>Caspase Activation and Recruitment Domain</t>
+  </si>
+  <si>
+    <t>C-Reactive Protein</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反应蛋白</t>
+    </r>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>DNA vaccine</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DNA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>疫苗</t>
+    </r>
+  </si>
+  <si>
+    <t>Fas/FasL counterattack</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Fas/FasL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反向攻击</t>
+    </r>
+  </si>
+  <si>
+    <t>Forssman antigen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Forssman </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抗原</t>
+    </r>
+  </si>
+  <si>
+    <t>IL-1 receptor antagonist</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IL-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受体拮抗剂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IL-1 R </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿尔法</t>
+    </r>
+  </si>
+  <si>
+    <t>J chain</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链</t>
+    </r>
+  </si>
+  <si>
+    <t>LPS binding protein</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LPS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结合蛋白</t>
+    </r>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>MBL pathway</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MBL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>途径</t>
+    </r>
+  </si>
+  <si>
+    <t>MHC class I presentation pathway</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MHC I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类途径</t>
+    </r>
+  </si>
+  <si>
+    <t>MHC class II presentation pathway</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MHC II </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类途径</t>
+    </r>
+  </si>
+  <si>
+    <t>MHC class II compartment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MHC II </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类小室</t>
+    </r>
+  </si>
+  <si>
+    <t>M II C</t>
+  </si>
+  <si>
+    <t>MHC class I chain-related antigen A</t>
+  </si>
+  <si>
+    <t>MICA</t>
+  </si>
+  <si>
+    <t>microfold cell</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细胞</t>
+    </r>
+  </si>
+  <si>
+    <t>NK cell precursor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前体细胞</t>
+    </r>
+  </si>
+  <si>
+    <t>NKp</t>
+  </si>
+  <si>
+    <t>pNK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祖细胞</t>
+    </r>
+  </si>
+  <si>
+    <t>NOD-like receptor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样受体</t>
+    </r>
+  </si>
+  <si>
+    <t>NLR</t>
+  </si>
+  <si>
+    <t>RIG-I-like receptor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RIG-I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样受体</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -133,9 +562,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -164,6 +593,51 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -174,16 +648,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,9 +665,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,67 +688,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +702,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -287,28 +738,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -319,37 +748,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,121 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,30 +994,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -613,11 +1018,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,11 +1050,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,10 +1099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +1111,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,20 +1824,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="23.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.725" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1871,243 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
